--- a/docs/flowcharts/FLOWCHARTS.xlsx
+++ b/docs/flowcharts/FLOWCHARTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\flowcharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F49BCD-FB8F-4475-A1D1-66132342719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC4E05D-674E-457F-AC72-8EF5E90F965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">FLOWCHARTS </t>
   </si>
@@ -58,6 +58,36 @@
   </si>
   <si>
     <t xml:space="preserve">Describes what happens in the backend when the PHP logo on the landing page is pressed. </t>
+  </si>
+  <si>
+    <t>SECURITY</t>
+  </si>
+  <si>
+    <t>SESSIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlines SecurityService class usage </t>
+  </si>
+  <si>
+    <t>Outlines Sessions class usage</t>
+  </si>
+  <si>
+    <t>ADMIN ADD CLASS</t>
+  </si>
+  <si>
+    <t>ADMIN EDIT CLASS</t>
+  </si>
+  <si>
+    <t>REDIRECT</t>
+  </si>
+  <si>
+    <t>Describes what happens when the form is submitted in admin_add_class.php</t>
+  </si>
+  <si>
+    <t>Describes what pages are needed to edit a class and what they do</t>
+  </si>
+  <si>
+    <t>Describes how custom Redirects are generated</t>
   </si>
 </sst>
 </file>
@@ -409,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,80 +477,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="43" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="52" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
     </row>
